--- a/BLACK_SUNRISE_HSV/90_Degree_GLCM/R_resmat.xlsx
+++ b/BLACK_SUNRISE_HSV/90_Degree_GLCM/R_resmat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_HSV\90_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFB4C4-A917-415C-AB50-D45BE6E2FCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,16 +51,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,22 +336,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.046875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.002232530853467756</v>
+        <v>2.232530853467756E-3</v>
       </c>
       <c r="B1">
         <v>0.77041799798081734</v>
@@ -361,9 +364,9 @@
         <v>0.99888373457326607</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.021557894736842106</v>
+        <v>2.1557894736842106E-2</v>
       </c>
       <c r="B2">
         <v>0.95232103726410144</v>
@@ -375,9 +378,9 @@
         <v>0.989221052631579</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.039392303161201653</v>
+        <v>3.9392303161201653E-2</v>
       </c>
       <c r="B3">
         <v>0.91599872615936673</v>
@@ -389,9 +392,9 @@
         <v>0.9803038484193991</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.038886279369584553</v>
+        <v>3.8886279369584553E-2</v>
       </c>
       <c r="B4">
         <v>0.9174012409363177</v>
@@ -403,9 +406,9 @@
         <v>0.98055686031520772</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.033051617865955382</v>
+        <v>3.3051617865955382E-2</v>
       </c>
       <c r="B5">
         <v>0.92839818776629923</v>
@@ -417,9 +420,9 @@
         <v>0.98347419106702227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.042139364770144579</v>
+        <v>4.2139364770144579E-2</v>
       </c>
       <c r="B6">
         <v>0.91063625016257843</v>
@@ -431,9 +434,9 @@
         <v>0.97893031761492766</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.023693696198074481</v>
+        <v>2.3693696198074481E-2</v>
       </c>
       <c r="B7">
         <v>0.93476754011312579</v>
@@ -445,9 +448,9 @@
         <v>0.98815315190096276</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.026394686907020876</v>
+        <v>2.6394686907020876E-2</v>
       </c>
       <c r="B8">
         <v>0.94606268944159644</v>
@@ -459,9 +462,9 @@
         <v>0.98680265654648958</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.056025562994522216</v>
+        <v>5.6025562994522216E-2</v>
       </c>
       <c r="B9">
         <v>0.87895510165479473</v>
@@ -473,9 +476,9 @@
         <v>0.97198721850273895</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.030795262267343484</v>
+        <v>3.0795262267343484E-2</v>
       </c>
       <c r="B10">
         <v>0.91342814358146052</v>
@@ -487,9 +490,9 @@
         <v>0.98460236886632824</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.045378963650425368</v>
+        <v>4.5378963650425368E-2</v>
       </c>
       <c r="B11">
         <v>0.90592980837418446</v>
@@ -501,9 +504,9 @@
         <v>0.97731051817478731</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.045706594138543513</v>
+        <v>4.5706594138543513E-2</v>
       </c>
       <c r="B12">
         <v>0.8993402374616386</v>
@@ -515,9 +518,9 @@
         <v>0.97714670293072825</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.029496734537072605</v>
+        <v>2.9496734537072605E-2</v>
       </c>
       <c r="B13">
         <v>0.94034181996034871</v>
@@ -529,9 +532,9 @@
         <v>0.98525163273146366</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.034308754647737694</v>
+        <v>3.4308754647737694E-2</v>
       </c>
       <c r="B14">
         <v>0.92930786086693573</v>
@@ -543,9 +546,9 @@
         <v>0.98284562267613107</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.040923645851302398</v>
+        <v>4.0923645851302398E-2</v>
       </c>
       <c r="B15">
         <v>0.9151618190332691</v>
@@ -557,9 +560,9 @@
         <v>0.97953817707434876</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.024598658200551099</v>
+        <v>2.4598658200551099E-2</v>
       </c>
       <c r="B16">
         <v>0.93676828755187302</v>
@@ -571,9 +574,9 @@
         <v>0.98770067089972446</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.028353057199211044</v>
+        <v>2.8353057199211044E-2</v>
       </c>
       <c r="B17">
         <v>0.94095129951197287</v>
@@ -585,9 +588,9 @@
         <v>0.98582347140039439</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.030813709199946523</v>
+        <v>3.0813709199946523E-2</v>
       </c>
       <c r="B18">
         <v>0.9300852157070264</v>
@@ -599,9 +602,9 @@
         <v>0.98459314540002674</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.036473336998350744</v>
+        <v>3.6473336998350744E-2</v>
       </c>
       <c r="B19">
         <v>0.91282339006087854</v>
@@ -613,9 +616,9 @@
         <v>0.98176333150082473</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.019749876999587784</v>
+        <v>1.9749876999587784E-2</v>
       </c>
       <c r="B20">
         <v>0.93906896145972329</v>
@@ -627,9 +630,9 @@
         <v>0.99012506150020596</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.037304607710335634</v>
+        <v>3.7304607710335634E-2</v>
       </c>
       <c r="B21">
         <v>0.91089949906783985</v>
@@ -641,9 +644,9 @@
         <v>0.98134769614483219</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.0051932194789337648</v>
+        <v>5.1932194789337648E-3</v>
       </c>
       <c r="B22">
         <v>0.70126837687540067</v>
@@ -655,9 +658,9 @@
         <v>0.99740339026053315</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.023984909521069124</v>
+        <v>2.3984909521069124E-2</v>
       </c>
       <c r="B23">
         <v>0.86990804979630165</v>
@@ -669,10 +672,13 @@
         <v>0.98800754523946543</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -680,9 +686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.025908876298394713</v>
+        <v>2.5908876298394713E-2</v>
       </c>
       <c r="B25">
         <v>0.91660175448286141</v>
@@ -694,9 +700,9 @@
         <v>0.9870455618508025</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.033907874816965722</v>
+        <v>3.3907874816965722E-2</v>
       </c>
       <c r="B26">
         <v>0.89037356117544963</v>
@@ -708,9 +714,9 @@
         <v>0.98304606259151717</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.019727315829264853</v>
+        <v>1.9727315829264853E-2</v>
       </c>
       <c r="B27">
         <v>0.9025473599788757</v>
@@ -722,9 +728,9 @@
         <v>0.9901363420853676</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.0017688006390505536</v>
+        <v>1.7688006390505536E-3</v>
       </c>
       <c r="B28">
         <v>0.94150902740686404</v>
@@ -736,9 +742,9 @@
         <v>0.99992439803720179</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.0034785932721712537</v>
+        <v>3.4785932721712537E-3</v>
       </c>
       <c r="B29">
         <v>0.70356125767092648</v>
@@ -750,9 +756,9 @@
         <v>0.99826070336391437</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.027261423361859088</v>
+        <v>2.7261423361859088E-2</v>
       </c>
       <c r="B30">
         <v>0.85815159190107249</v>
@@ -764,9 +770,9 @@
         <v>0.98661614578435364</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.024095337508698675</v>
+        <v>2.4095337508698675E-2</v>
       </c>
       <c r="B31">
         <v>0.90036363349375981</v>
@@ -778,9 +784,9 @@
         <v>0.98897986256089088</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.0030317571104519279</v>
+        <v>3.0317571104519279E-3</v>
       </c>
       <c r="B32">
         <v>0.64448778888930269</v>
@@ -792,9 +798,9 @@
         <v>0.99848412144477416</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.019648002837256727</v>
+        <v>1.9648002837256727E-2</v>
       </c>
       <c r="B33">
         <v>0.85140621809142536</v>
@@ -806,9 +812,9 @@
         <v>0.99017599858137162</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.020874063212772891</v>
+        <v>2.0874063212772891E-2</v>
       </c>
       <c r="B34">
         <v>0.95306602251712447</v>
@@ -820,9 +826,9 @@
         <v>0.98956296839361357</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.032956553281613836</v>
+        <v>3.2956553281613836E-2</v>
       </c>
       <c r="B35">
         <v>0.92638777266931238</v>
@@ -834,9 +840,9 @@
         <v>0.98352172335919308</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.022256014715411467</v>
+        <v>2.2256014715411467E-2</v>
       </c>
       <c r="B36">
         <v>0.88940618707435071</v>
@@ -848,9 +854,9 @@
         <v>0.9888719926422942</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.014837425948537059</v>
+        <v>1.4837425948537059E-2</v>
       </c>
       <c r="B37">
         <v>0.87740838845824964</v>
@@ -862,9 +868,9 @@
         <v>0.99258128702573134</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.019592091757040211</v>
+        <v>1.9592091757040211E-2</v>
       </c>
       <c r="B38">
         <v>0.87410548523469911</v>
@@ -876,9 +882,9 @@
         <v>0.99168005533984915</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.032900552850677542</v>
+        <v>3.2900552850677542E-2</v>
       </c>
       <c r="B39">
         <v>0.87772052615042639</v>
@@ -890,9 +896,9 @@
         <v>0.98354972357466131</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.041164693899055187</v>
+        <v>4.1164693899055187E-2</v>
       </c>
       <c r="B40">
         <v>0.87981937164539559</v>
@@ -904,10 +910,13 @@
         <v>0.98149213234519339</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>1</v>
       </c>
@@ -915,9 +924,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.054082788671023965</v>
+        <v>5.4082788671023965E-2</v>
       </c>
       <c r="B42">
         <v>0.71811204340864798</v>
@@ -929,10 +938,13 @@
         <v>0.97295860566448789</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -940,9 +952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.017274226175631117</v>
+        <v>1.7274226175631117E-2</v>
       </c>
       <c r="B44">
         <v>0.71244930691589681</v>
@@ -954,9 +966,9 @@
         <v>0.99218122176961221</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.017552579261274459</v>
+        <v>1.7552579261274459E-2</v>
       </c>
       <c r="B45">
         <v>0.74409500048670263</v>
@@ -968,9 +980,9 @@
         <v>0.99122371036936285</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.025987577639751555</v>
+        <v>2.5987577639751555E-2</v>
       </c>
       <c r="B46">
         <v>0.77076999455255157</v>
@@ -982,9 +994,9 @@
         <v>0.98700621118012422</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.032127731143831322</v>
+        <v>3.2127731143831322E-2</v>
       </c>
       <c r="B47">
         <v>0.73486822450962519</v>
@@ -996,9 +1008,9 @@
         <v>0.98393613442808436</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.014438275888657568</v>
+        <v>1.4438275888657568E-2</v>
       </c>
       <c r="B48">
         <v>0.78981024913693254</v>
@@ -1010,9 +1022,9 @@
         <v>0.99278086205567129</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.012758338619745584</v>
+        <v>1.2758338619745584E-2</v>
       </c>
       <c r="B49">
         <v>0.7088645962484883</v>
@@ -1024,9 +1036,9 @@
         <v>0.99362083069012719</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.011544604152407028</v>
+        <v>1.1544604152407028E-2</v>
       </c>
       <c r="B50">
         <v>0.69088133166982735</v>
@@ -1038,9 +1050,9 @@
         <v>0.99422769792379651</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.01225240258335651</v>
+        <v>1.225240258335651E-2</v>
       </c>
       <c r="B51">
         <v>0.7382876138319967</v>
@@ -1052,9 +1064,9 @@
         <v>0.99387379870832171</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.018787751614982237</v>
+        <v>1.8787751614982237E-2</v>
       </c>
       <c r="B52">
         <v>0.74563521501881513</v>
@@ -1066,9 +1078,9 @@
         <v>0.99078317270942318</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.019885583524027459</v>
+        <v>1.9885583524027459E-2</v>
       </c>
       <c r="B53">
         <v>0.74040889557817169</v>
@@ -1080,10 +1092,13 @@
         <v>0.99005720823798615</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -1091,10 +1106,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>1</v>
       </c>
@@ -1102,10 +1120,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -1113,9 +1134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.017134919189027403</v>
+        <v>1.7134919189027403E-2</v>
       </c>
       <c r="B57">
         <v>0.77201808673999295</v>
@@ -1127,9 +1148,9 @@
         <v>0.99143254040548623</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.023866585362394884</v>
+        <v>2.3866585362394884E-2</v>
       </c>
       <c r="B58">
         <v>0.76151026077828154</v>
@@ -1141,9 +1162,9 @@
         <v>0.98806670731880253</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.024540433766024349</v>
+        <v>2.4540433766024349E-2</v>
       </c>
       <c r="B59">
         <v>0.77544995234824976</v>
@@ -1155,9 +1176,9 @@
         <v>0.98772978311698778</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.021831178603187631</v>
+        <v>2.1831178603187631E-2</v>
       </c>
       <c r="B60">
         <v>0.73789082200497824</v>
@@ -1169,9 +1190,9 @@
         <v>0.98908441069840625</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.030419051378198801</v>
+        <v>3.0419051378198801E-2</v>
       </c>
       <c r="B61">
         <v>0.90509247349368471</v>
@@ -1183,9 +1204,9 @@
         <v>0.98479047431090061</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.018906140687413961</v>
+        <v>1.8906140687413961E-2</v>
       </c>
       <c r="B62">
         <v>0.92955734857451811</v>
@@ -1197,9 +1218,9 @@
         <v>0.9905469296562931</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.023343526438130487</v>
+        <v>2.3343526438130487E-2</v>
       </c>
       <c r="B63">
         <v>0.9147986683183521</v>
@@ -1211,9 +1232,9 @@
         <v>0.98832823678093473</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.041683702441794437</v>
+        <v>4.1683702441794437E-2</v>
       </c>
       <c r="B64">
         <v>0.88524792900291682</v>
@@ -1225,9 +1246,9 @@
         <v>0.97915814877910279</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.031187168448195565</v>
+        <v>3.1187168448195565E-2</v>
       </c>
       <c r="B65">
         <v>0.89859235401196058</v>
@@ -1239,9 +1260,9 @@
         <v>0.98440641577590227</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.030297326786688488</v>
+        <v>3.0297326786688488E-2</v>
       </c>
       <c r="B66">
         <v>0.90544532819843115</v>
@@ -1253,9 +1274,9 @@
         <v>0.9848513366066558</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.036961939762598747</v>
+        <v>3.6961939762598747E-2</v>
       </c>
       <c r="B67">
         <v>0.89546487754122028</v>
@@ -1267,9 +1288,9 @@
         <v>0.98151903011870067</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.027223779962250564</v>
+        <v>2.7223779962250564E-2</v>
       </c>
       <c r="B68">
         <v>0.91833995468288299</v>
@@ -1281,9 +1302,9 @@
         <v>0.98638811001887472</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.028189724278070878</v>
+        <v>2.8189724278070878E-2</v>
       </c>
       <c r="B69">
         <v>0.91753754878518479</v>
@@ -1295,9 +1316,9 @@
         <v>0.98590513786096456</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.026837182405639596</v>
+        <v>2.6837182405639596E-2</v>
       </c>
       <c r="B70">
         <v>0.91528101834945275</v>
@@ -1309,9 +1330,9 @@
         <v>0.98658140879718026</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.039314408995260064</v>
+        <v>3.9314408995260064E-2</v>
       </c>
       <c r="B71">
         <v>0.89756779811832965</v>
@@ -1323,9 +1344,9 @@
         <v>0.98034279550237002</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.036589394378441033</v>
+        <v>3.6589394378441033E-2</v>
       </c>
       <c r="B72">
         <v>0.89386304083795565</v>
@@ -1337,9 +1358,9 @@
         <v>0.9817053028107795</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.040906598883572565</v>
+        <v>4.0906598883572565E-2</v>
       </c>
       <c r="B73">
         <v>0.89115512027807486</v>
@@ -1351,9 +1372,9 @@
         <v>0.97954670055821369</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.029595371805622613</v>
+        <v>2.9595371805622613E-2</v>
       </c>
       <c r="B74">
         <v>0.91357458163560934</v>
@@ -1365,9 +1386,9 @@
         <v>0.98520231409718872</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.031015740235598391</v>
+        <v>3.1015740235598391E-2</v>
       </c>
       <c r="B75">
         <v>0.89910932625408624</v>
@@ -1379,9 +1400,9 @@
         <v>0.98449212988220081</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.039333670560103007</v>
+        <v>3.9333670560103007E-2</v>
       </c>
       <c r="B76">
         <v>0.898527054305442</v>
@@ -1393,9 +1414,9 @@
         <v>0.98033316471994847</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.035728902349185562</v>
+        <v>3.5728902349185562E-2</v>
       </c>
       <c r="B77">
         <v>0.90058661525263151</v>
@@ -1407,9 +1428,9 @@
         <v>0.98213554882540721</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.023046087656028273</v>
+        <v>2.3046087656028273E-2</v>
       </c>
       <c r="B78">
         <v>0.92406398769392573</v>
@@ -1421,9 +1442,9 @@
         <v>0.98847695617198583</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.029994070196603655</v>
+        <v>2.9994070196603655E-2</v>
       </c>
       <c r="B79">
         <v>0.89916184622337969</v>
@@ -1435,9 +1456,9 @@
         <v>0.98500296490169825</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.021515322815492403</v>
+        <v>2.1515322815492403E-2</v>
       </c>
       <c r="B80">
         <v>0.9287794088600736</v>
@@ -1449,9 +1470,9 @@
         <v>0.98924233859225374</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.030419051378198801</v>
+        <v>3.0419051378198801E-2</v>
       </c>
       <c r="B81">
         <v>0.90509247349368471</v>
@@ -1463,9 +1484,9 @@
         <v>0.98479047431090061</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.018906140687413961</v>
+        <v>1.8906140687413961E-2</v>
       </c>
       <c r="B82">
         <v>0.92955734857451811</v>
@@ -1477,9 +1498,9 @@
         <v>0.9905469296562931</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.023343526438130487</v>
+        <v>2.3343526438130487E-2</v>
       </c>
       <c r="B83">
         <v>0.9147986683183521</v>
@@ -1491,9 +1512,9 @@
         <v>0.98832823678093473</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.041683702441794437</v>
+        <v>4.1683702441794437E-2</v>
       </c>
       <c r="B84">
         <v>0.88524792900291682</v>
@@ -1505,9 +1526,9 @@
         <v>0.97915814877910279</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.031187168448195565</v>
+        <v>3.1187168448195565E-2</v>
       </c>
       <c r="B85">
         <v>0.89859235401196058</v>
@@ -1519,9 +1540,9 @@
         <v>0.98440641577590227</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.030297326786688488</v>
+        <v>3.0297326786688488E-2</v>
       </c>
       <c r="B86">
         <v>0.90544532819843115</v>
@@ -1533,9 +1554,9 @@
         <v>0.9848513366066558</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.036961939762598747</v>
+        <v>3.6961939762598747E-2</v>
       </c>
       <c r="B87">
         <v>0.89546487754122028</v>
@@ -1547,9 +1568,9 @@
         <v>0.98151903011870067</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.027223779962250564</v>
+        <v>2.7223779962250564E-2</v>
       </c>
       <c r="B88">
         <v>0.91833995468288299</v>
@@ -1561,9 +1582,9 @@
         <v>0.98638811001887472</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.028189724278070878</v>
+        <v>2.8189724278070878E-2</v>
       </c>
       <c r="B89">
         <v>0.91753754878518479</v>
@@ -1575,9 +1596,9 @@
         <v>0.98590513786096456</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.026837182405639596</v>
+        <v>2.6837182405639596E-2</v>
       </c>
       <c r="B90">
         <v>0.91528101834945275</v>
@@ -1589,9 +1610,9 @@
         <v>0.98658140879718026</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.039314408995260064</v>
+        <v>3.9314408995260064E-2</v>
       </c>
       <c r="B91">
         <v>0.89756779811832965</v>
@@ -1603,9 +1624,9 @@
         <v>0.98034279550237002</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.036589394378441033</v>
+        <v>3.6589394378441033E-2</v>
       </c>
       <c r="B92">
         <v>0.89386304083795565</v>
@@ -1617,9 +1638,9 @@
         <v>0.9817053028107795</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.040906598883572565</v>
+        <v>4.0906598883572565E-2</v>
       </c>
       <c r="B93">
         <v>0.89115512027807486</v>
@@ -1631,9 +1652,9 @@
         <v>0.97954670055821369</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.029595371805622613</v>
+        <v>2.9595371805622613E-2</v>
       </c>
       <c r="B94">
         <v>0.91357458163560934</v>
@@ -1645,9 +1666,9 @@
         <v>0.98520231409718872</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.031015740235598391</v>
+        <v>3.1015740235598391E-2</v>
       </c>
       <c r="B95">
         <v>0.89910932625408624</v>
@@ -1659,9 +1680,9 @@
         <v>0.98449212988220081</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.039333670560103007</v>
+        <v>3.9333670560103007E-2</v>
       </c>
       <c r="B96">
         <v>0.898527054305442</v>
@@ -1673,9 +1694,9 @@
         <v>0.98033316471994847</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.035728902349185562</v>
+        <v>3.5728902349185562E-2</v>
       </c>
       <c r="B97">
         <v>0.90058661525263151</v>
@@ -1687,9 +1708,9 @@
         <v>0.98213554882540721</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.023046087656028273</v>
+        <v>2.3046087656028273E-2</v>
       </c>
       <c r="B98">
         <v>0.92406398769392573</v>
@@ -1701,9 +1722,9 @@
         <v>0.98847695617198583</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.029994070196603655</v>
+        <v>2.9994070196603655E-2</v>
       </c>
       <c r="B99">
         <v>0.89916184622337969</v>
@@ -1715,9 +1736,9 @@
         <v>0.98500296490169825</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.021515322815492403</v>
+        <v>2.1515322815492403E-2</v>
       </c>
       <c r="B100">
         <v>0.9287794088600736</v>
@@ -1729,9 +1750,9 @@
         <v>0.98924233859225374</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.0024842989981541889</v>
+        <v>2.4842989981541889E-3</v>
       </c>
       <c r="B101">
         <v>0.82382456066007448</v>
@@ -1743,9 +1764,9 @@
         <v>0.99985488907721065</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>0.084271042050928197</v>
+        <v>8.4271042050928197E-2</v>
       </c>
       <c r="B102">
         <v>0.83249427632774531</v>
@@ -1757,9 +1778,9 @@
         <v>0.95911844322660278</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.0030759573132454489</v>
+        <v>3.0759573132454489E-3</v>
       </c>
       <c r="B103">
         <v>0.82349801886159479</v>
@@ -1771,9 +1792,9 @@
         <v>0.99994507219083495</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.037104979189147527</v>
+        <v>3.7104979189147527E-2</v>
       </c>
       <c r="B104">
         <v>0.7560356160358519</v>
@@ -1785,9 +1806,9 @@
         <v>0.9814475104054261</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.0097273570666998998</v>
+        <v>9.7273570666998998E-3</v>
       </c>
       <c r="B105">
         <v>0.77457464313782032</v>
@@ -1799,9 +1820,9 @@
         <v>0.9960584917305102</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.043666485317339215</v>
+        <v>4.3666485317339215E-2</v>
       </c>
       <c r="B106">
         <v>0.82042329985199391</v>
@@ -1813,9 +1834,9 @@
         <v>0.97892282053809543</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.00294045577064445</v>
+        <v>2.94045577064445E-3</v>
       </c>
       <c r="B107">
         <v>0.71255731072281336</v>
@@ -1827,9 +1848,9 @@
         <v>0.99949460916442034</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.031377410468319551</v>
+        <v>3.1377410468319551E-2</v>
       </c>
       <c r="B108">
         <v>0.89073914356970263</v>
@@ -1841,9 +1862,9 @@
         <v>0.98499803227075955</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.050507878987536392</v>
+        <v>5.0507878987536392E-2</v>
       </c>
       <c r="B109">
         <v>0.87977510988830121</v>
@@ -1855,9 +1876,9 @@
         <v>0.97553041325792933</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.0091924522845575479</v>
+        <v>9.1924522845575479E-3</v>
       </c>
       <c r="B110">
         <v>0.88280694502713508</v>
@@ -1869,9 +1890,9 @@
         <v>0.99540377385772116</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.012848160860188924</v>
+        <v>1.2848160860188924E-2</v>
       </c>
       <c r="B111">
         <v>0.89775181242395696</v>
@@ -1883,9 +1904,9 @@
         <v>0.99357591956990554</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.028091036951796447</v>
+        <v>2.8091036951796447E-2</v>
       </c>
       <c r="B112">
         <v>0.79862060729438233</v>
@@ -1897,9 +1918,9 @@
         <v>0.98655862421685203</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.0018686524862108729</v>
+        <v>1.8686524862108729E-3</v>
       </c>
       <c r="B113">
         <v>0.74328380076233325</v>
@@ -1911,9 +1932,9 @@
         <v>0.99988624838490059</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.033951756619144596</v>
+        <v>3.3951756619144596E-2</v>
       </c>
       <c r="B114">
         <v>0.87887894944891121</v>
@@ -1925,9 +1946,9 @@
         <v>0.98420639593031711</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.043276459064194264</v>
+        <v>4.3276459064194264E-2</v>
       </c>
       <c r="B115">
         <v>0.84864912530374781</v>
@@ -1939,9 +1960,9 @@
         <v>0.9797863899591911</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.014643628509719222</v>
+        <v>1.4643628509719222E-2</v>
       </c>
       <c r="B116">
         <v>0.90189116346830522</v>
@@ -1953,9 +1974,9 @@
         <v>0.99326133909287273</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.014797290747831142</v>
+        <v>1.4797290747831142E-2</v>
       </c>
       <c r="B117">
         <v>0.85665071953580274</v>
@@ -1967,9 +1988,9 @@
         <v>0.99331698613870967</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.04327583668662284</v>
+        <v>4.327583668662284E-2</v>
       </c>
       <c r="B118">
         <v>0.87196794710465353</v>
@@ -1981,9 +2002,9 @@
         <v>0.97942510071552413</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.038868078317118429</v>
+        <v>3.8868078317118429E-2</v>
       </c>
       <c r="B119">
         <v>0.83511582422087827</v>
@@ -1995,9 +2016,9 @@
         <v>0.98150592048379626</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.056513687134672141</v>
+        <v>5.6513687134672141E-2</v>
       </c>
       <c r="B120">
         <v>0.8255988357357682</v>
@@ -2009,9 +2030,9 @@
         <v>0.97280611236044856</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.050955493308434484</v>
+        <v>5.0955493308434484E-2</v>
       </c>
       <c r="B121">
         <v>0.941360315501372</v>
@@ -2023,9 +2044,9 @@
         <v>0.97922813569872391</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.058304408537801715</v>
+        <v>5.8304408537801715E-2</v>
       </c>
       <c r="B122">
         <v>0.81430567394644726</v>
@@ -2037,9 +2058,9 @@
         <v>0.97113056054258917</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.023190325574689339</v>
+        <v>2.3190325574689339E-2</v>
       </c>
       <c r="B123">
         <v>0.79113073139997292</v>
@@ -2051,9 +2072,9 @@
         <v>0.98840483721265526</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0.06693174287607688</v>
+        <v>6.693174287607688E-2</v>
       </c>
       <c r="B124">
         <v>0.82796101075932849</v>
@@ -2065,9 +2086,9 @@
         <v>0.96653412856196141</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.029713732584340981</v>
+        <v>2.9713732584340981E-2</v>
       </c>
       <c r="B125">
         <v>0.93656035391941683</v>
@@ -2079,9 +2100,9 @@
         <v>0.98514313370782958</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.016105001078241095</v>
+        <v>1.6105001078241095E-2</v>
       </c>
       <c r="B126">
         <v>0.96075042729948623</v>
@@ -2093,9 +2114,9 @@
         <v>0.99310538336372012</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.030503680212982536</v>
+        <v>3.0503680212982536E-2</v>
       </c>
       <c r="B127">
         <v>0.94041777503175483</v>
@@ -2107,9 +2128,9 @@
         <v>0.98546144585388773</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.046993267658133962</v>
+        <v>4.6993267658133962E-2</v>
       </c>
       <c r="B128">
         <v>0.90510364788765585</v>
@@ -2121,9 +2142,9 @@
         <v>0.97650336617093303</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.060341886174423362</v>
+        <v>6.0341886174423362E-2</v>
       </c>
       <c r="B129">
         <v>0.9176063804298864</v>
@@ -2135,9 +2156,9 @@
         <v>0.97305343250989496</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.05860107792633177</v>
+        <v>5.860107792633177E-2</v>
       </c>
       <c r="B130">
         <v>0.92990249744737852</v>
@@ -2149,9 +2170,9 @@
         <v>0.9745686061400114</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.052446192801591615</v>
+        <v>5.2446192801591615E-2</v>
       </c>
       <c r="B131">
         <v>0.89436351556116334</v>
@@ -2163,9 +2184,9 @@
         <v>0.97484513474407675</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.021118771914316863</v>
+        <v>2.1118771914316863E-2</v>
       </c>
       <c r="B132">
         <v>0.96468179181101943</v>
@@ -2177,9 +2198,9 @@
         <v>0.9922250213618552</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.029120956399437407</v>
+        <v>2.9120956399437407E-2</v>
       </c>
       <c r="B133">
         <v>0.95565756001500501</v>
@@ -2191,9 +2212,9 @@
         <v>0.98926072433192691</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.0080725285643318441</v>
+        <v>8.0725285643318441E-3</v>
       </c>
       <c r="B134">
         <v>0.93790057272874827</v>
@@ -2205,9 +2226,9 @@
         <v>0.99596373571783403</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.041164692140830968</v>
+        <v>4.1164692140830968E-2</v>
       </c>
       <c r="B135">
         <v>0.89441590427632767</v>
@@ -2219,9 +2240,9 @@
         <v>0.97968046053729352</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.027680890538033395</v>
+        <v>2.7680890538033395E-2</v>
       </c>
       <c r="B136">
         <v>0.83498836315851566</v>
@@ -2233,9 +2254,9 @@
         <v>0.98615955473098338</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.024048918619444332</v>
+        <v>2.4048918619444332E-2</v>
       </c>
       <c r="B137">
         <v>0.94653826029642807</v>
@@ -2247,9 +2268,9 @@
         <v>0.98797554069027771</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.034011299435028244</v>
+        <v>3.4011299435028244E-2</v>
       </c>
       <c r="B138">
         <v>0.92423893016626524</v>
@@ -2261,9 +2282,9 @@
         <v>0.98315137919574602</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.034084631532427356</v>
+        <v>3.4084631532427356E-2</v>
       </c>
       <c r="B139">
         <v>0.92948735972481378</v>
@@ -2275,9 +2296,9 @@
         <v>0.98310269583471444</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.032400475341651809</v>
+        <v>3.2400475341651809E-2</v>
       </c>
       <c r="B140">
         <v>0.92729914708128225</v>
@@ -2289,9 +2310,9 @@
         <v>0.98450163398692803</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.013570428515687759</v>
+        <v>1.3570428515687759E-2</v>
       </c>
       <c r="B141">
         <v>0.71058073641553776</v>
@@ -2303,9 +2324,9 @@
         <v>0.99321478574215616</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.0042490759998410309</v>
+        <v>4.2490759998410309E-3</v>
       </c>
       <c r="B142">
         <v>0.63771379656129035</v>
@@ -2317,9 +2338,9 @@
         <v>0.9980584405261832</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.0049430456656786251</v>
+        <v>4.9430456656786251E-3</v>
       </c>
       <c r="B143">
         <v>0.95276018089453773</v>
@@ -2331,9 +2352,9 @@
         <v>0.9992053791466502</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.00057938208227225566</v>
+        <v>5.7938208227225566E-4</v>
       </c>
       <c r="B144">
         <v>0.55868447752239003</v>
@@ -2345,9 +2366,9 @@
         <v>0.99971030895886381</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.00085764242397414912</v>
+        <v>8.5764242397414912E-4</v>
       </c>
       <c r="B145">
         <v>0.70216038130879632</v>
@@ -2359,9 +2380,9 @@
         <v>0.99957486757263225</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.0016566576931041626</v>
+        <v>1.6566576931041626E-3</v>
       </c>
       <c r="B146">
         <v>0.68745323406285908</v>
@@ -2373,9 +2394,9 @@
         <v>0.99917167115344796</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.0049015668943350743</v>
+        <v>4.9015668943350743E-3</v>
       </c>
       <c r="B147">
         <v>0.63831035852482665</v>
@@ -2387,9 +2408,9 @@
         <v>0.99755993036025181</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.0014894805436603984</v>
+        <v>1.4894805436603984E-3</v>
       </c>
       <c r="B148">
         <v>0.74994064421144768</v>
@@ -2401,9 +2422,9 @@
         <v>0.99980021375012984</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.00065141864504921832</v>
+        <v>6.5141864504921832E-4</v>
       </c>
       <c r="B149">
         <v>0.58214826319936863</v>
@@ -2415,9 +2436,9 @@
         <v>0.99967429067747537</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.00042157881265338695</v>
+        <v>4.2157881265338695E-4</v>
       </c>
       <c r="B150">
         <v>0.70203677792128849</v>
@@ -2429,9 +2450,9 @@
         <v>0.99979924818445065</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.0015471993732863298</v>
+        <v>1.5471993732863298E-3</v>
       </c>
       <c r="B151">
         <v>0.60161079165334397</v>
@@ -2443,9 +2464,9 @@
         <v>0.99923075249162208</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.0011478702906571557</v>
+        <v>1.1478702906571557E-3</v>
       </c>
       <c r="B152">
         <v>0.68671267257756974</v>
@@ -2457,9 +2478,9 @@
         <v>0.99943972997717923</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>8.9276786607053586e-05</v>
+        <v>8.9276786607053586E-5</v>
       </c>
       <c r="B153">
         <v>0.79672966544396318</v>
@@ -2471,9 +2492,9 @@
         <v>0.99995536160669651</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.0088667058132706946</v>
+        <v>8.8667058132706946E-3</v>
       </c>
       <c r="B154">
         <v>0.68508966410053418</v>
@@ -2485,9 +2506,9 @@
         <v>0.9956349439364709</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.0040758873929008562</v>
+        <v>4.0758873929008562E-3</v>
       </c>
       <c r="B155">
         <v>0.62173913832293282</v>
@@ -2499,9 +2520,9 @@
         <v>0.9983865817644888</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.00092289621612551384</v>
+        <v>9.2289621612551384E-4</v>
       </c>
       <c r="B156">
         <v>0.63739804545708822</v>
@@ -2513,9 +2534,9 @@
         <v>0.99953855189193719</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.00096763527443886877</v>
+        <v>9.6763527443886877E-4</v>
       </c>
       <c r="B157">
         <v>0.72734089718134431</v>
@@ -2527,9 +2548,9 @@
         <v>0.99951618236278073</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.0042288253036602266</v>
+        <v>4.2288253036602266E-3</v>
       </c>
       <c r="B158">
         <v>0.65659858374989932</v>
@@ -2541,9 +2562,9 @@
         <v>0.99789238064183039</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.0048252560447682403</v>
+        <v>4.8252560447682403E-3</v>
       </c>
       <c r="B159">
         <v>0.6292631558368712</v>
@@ -2555,9 +2576,9 @@
         <v>0.99761552810333287</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.0021869328493647915</v>
+        <v>2.1869328493647915E-3</v>
       </c>
       <c r="B160">
         <v>0.65775053250719151</v>
@@ -2569,9 +2590,9 @@
         <v>0.99891863278886872</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.0087411658430309788</v>
+        <v>8.7411658430309788E-3</v>
       </c>
       <c r="B161">
         <v>0.97733778868315269</v>
@@ -2583,9 +2604,9 @@
         <v>0.99562941707848451</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.029776631397940026</v>
+        <v>2.9776631397940026E-2</v>
       </c>
       <c r="B162">
         <v>0.93425581796266066</v>
@@ -2597,9 +2618,9 @@
         <v>0.98511168430102991</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.049505247376311838</v>
+        <v>4.9505247376311838E-2</v>
       </c>
       <c r="B163">
         <v>0.89547433862043846</v>
@@ -2611,9 +2632,9 @@
         <v>0.97529152090621352</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.0098600703471478819</v>
+        <v>9.8600703471478819E-3</v>
       </c>
       <c r="B164">
         <v>0.9191722313734404</v>
@@ -2625,9 +2646,9 @@
         <v>0.99506996482642607</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.069987792280965355</v>
+        <v>6.9987792280965355E-2</v>
       </c>
       <c r="B165">
         <v>0.85893205799870231</v>
@@ -2639,9 +2660,9 @@
         <v>0.96500610385951724</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.02305087688834867</v>
+        <v>2.305087688834867E-2</v>
       </c>
       <c r="B166">
         <v>0.95265930545498456</v>
@@ -2653,9 +2674,9 @@
         <v>0.98847456155582558</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.070069988705978983</v>
+        <v>7.0069988705978983E-2</v>
       </c>
       <c r="B167">
         <v>0.85932965275524353</v>
@@ -2667,9 +2688,9 @@
         <v>0.9649650056470106</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.020326768621410495</v>
+        <v>2.0326768621410495E-2</v>
       </c>
       <c r="B168">
         <v>0.9367289720869949</v>
@@ -2681,9 +2702,9 @@
         <v>0.98983661568929471</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.070079744816586909</v>
+        <v>7.0079744816586909E-2</v>
       </c>
       <c r="B169">
         <v>0.8487213951089041</v>
@@ -2695,9 +2716,9 @@
         <v>0.96496012759170657</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.072974756289642853</v>
+        <v>7.2974756289642853E-2</v>
       </c>
       <c r="B170">
         <v>0.84902277218973454</v>
@@ -2709,9 +2730,9 @@
         <v>0.96356092640680358</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.073475107888063357</v>
+        <v>7.3475107888063357E-2</v>
       </c>
       <c r="B171">
         <v>0.85149802327365054</v>
@@ -2723,9 +2744,9 @@
         <v>0.96326244605596845</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.078535594839942643</v>
+        <v>7.8535594839942643E-2</v>
       </c>
       <c r="B172">
         <v>0.84324164704614224</v>
@@ -2737,9 +2758,9 @@
         <v>0.96073751128098972</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.072059578015776296</v>
+        <v>7.2059578015776296E-2</v>
       </c>
       <c r="B173">
         <v>0.84603701695153422</v>
@@ -2751,9 +2772,9 @@
         <v>0.96397555527052725</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.037298519736842103</v>
+        <v>3.7298519736842103E-2</v>
       </c>
       <c r="B174">
         <v>0.92362455977829627</v>
@@ -2765,9 +2786,9 @@
         <v>0.98135622258771926</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.031707418151678407</v>
+        <v>3.1707418151678407E-2</v>
       </c>
       <c r="B175">
         <v>0.93658860198580696</v>
@@ -2779,9 +2800,9 @@
         <v>0.98414629092416073</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.068893480257116613</v>
+        <v>6.8893480257116613E-2</v>
       </c>
       <c r="B176">
         <v>0.8525617000856216</v>
@@ -2793,9 +2814,9 @@
         <v>0.96556856443220107</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.068629357708951233</v>
+        <v>6.8629357708951233E-2</v>
       </c>
       <c r="B177">
         <v>0.85012199471651462</v>
@@ -2807,9 +2828,9 @@
         <v>0.96568532114552463</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.063717364276833818</v>
+        <v>6.3717364276833818E-2</v>
       </c>
       <c r="B178">
         <v>0.85887388407098686</v>
@@ -2821,9 +2842,9 @@
         <v>0.96814684348666935</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.058078893269976069</v>
+        <v>5.8078893269976069E-2</v>
       </c>
       <c r="B179">
         <v>0.88399813353337175</v>
@@ -2835,9 +2856,9 @@
         <v>0.97096055336501219</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.01369336330296936</v>
+        <v>1.369336330296936E-2</v>
       </c>
       <c r="B180">
         <v>0.96506335594044779</v>
@@ -2849,9 +2870,9 @@
         <v>0.99315331834851528</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.0087411658430309788</v>
+        <v>8.7411658430309788E-3</v>
       </c>
       <c r="B181">
         <v>0.97733778868315269</v>
@@ -2863,9 +2884,9 @@
         <v>0.99562941707848451</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.029776631397940026</v>
+        <v>2.9776631397940026E-2</v>
       </c>
       <c r="B182">
         <v>0.93425581796266066</v>
@@ -2877,9 +2898,9 @@
         <v>0.98511168430102991</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.049505247376311838</v>
+        <v>4.9505247376311838E-2</v>
       </c>
       <c r="B183">
         <v>0.89547433862043846</v>
@@ -2891,9 +2912,9 @@
         <v>0.97529152090621352</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.0098600703471478819</v>
+        <v>9.8600703471478819E-3</v>
       </c>
       <c r="B184">
         <v>0.9191722313734404</v>
@@ -2905,9 +2926,9 @@
         <v>0.99506996482642607</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.069987792280965355</v>
+        <v>6.9987792280965355E-2</v>
       </c>
       <c r="B185">
         <v>0.85893205799870231</v>
@@ -2919,9 +2940,9 @@
         <v>0.96500610385951724</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.02305087688834867</v>
+        <v>2.305087688834867E-2</v>
       </c>
       <c r="B186">
         <v>0.95265930545498456</v>
@@ -2933,9 +2954,9 @@
         <v>0.98847456155582558</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.070069988705978983</v>
+        <v>7.0069988705978983E-2</v>
       </c>
       <c r="B187">
         <v>0.85932965275524353</v>
@@ -2947,9 +2968,9 @@
         <v>0.9649650056470106</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.020326768621410495</v>
+        <v>2.0326768621410495E-2</v>
       </c>
       <c r="B188">
         <v>0.9367289720869949</v>
@@ -2961,9 +2982,9 @@
         <v>0.98983661568929471</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.070079744816586909</v>
+        <v>7.0079744816586909E-2</v>
       </c>
       <c r="B189">
         <v>0.8487213951089041</v>
@@ -2975,9 +2996,9 @@
         <v>0.96496012759170657</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.072974756289642853</v>
+        <v>7.2974756289642853E-2</v>
       </c>
       <c r="B190">
         <v>0.84902277218973454</v>
@@ -2989,9 +3010,9 @@
         <v>0.96356092640680358</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>0.073475107888063357</v>
+        <v>7.3475107888063357E-2</v>
       </c>
       <c r="B191">
         <v>0.85149802327365054</v>
@@ -3003,9 +3024,9 @@
         <v>0.96326244605596845</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>0.078535594839942643</v>
+        <v>7.8535594839942643E-2</v>
       </c>
       <c r="B192">
         <v>0.84324164704614224</v>
@@ -3017,9 +3038,9 @@
         <v>0.96073751128098972</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.072059578015776296</v>
+        <v>7.2059578015776296E-2</v>
       </c>
       <c r="B193">
         <v>0.84603701695153422</v>
@@ -3031,9 +3052,9 @@
         <v>0.96397555527052725</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.037298519736842103</v>
+        <v>3.7298519736842103E-2</v>
       </c>
       <c r="B194">
         <v>0.92362455977829627</v>
@@ -3045,9 +3066,9 @@
         <v>0.98135622258771926</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.031707418151678407</v>
+        <v>3.1707418151678407E-2</v>
       </c>
       <c r="B195">
         <v>0.93658860198580696</v>
@@ -3059,9 +3080,9 @@
         <v>0.98414629092416073</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.068893480257116613</v>
+        <v>6.8893480257116613E-2</v>
       </c>
       <c r="B196">
         <v>0.8525617000856216</v>
@@ -3073,9 +3094,9 @@
         <v>0.96556856443220107</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.068629357708951233</v>
+        <v>6.8629357708951233E-2</v>
       </c>
       <c r="B197">
         <v>0.85012199471651462</v>
@@ -3087,9 +3108,9 @@
         <v>0.96568532114552463</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.063717364276833818</v>
+        <v>6.3717364276833818E-2</v>
       </c>
       <c r="B198">
         <v>0.85887388407098686</v>
@@ -3101,9 +3122,9 @@
         <v>0.96814684348666935</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.058078893269976069</v>
+        <v>5.8078893269976069E-2</v>
       </c>
       <c r="B199">
         <v>0.88399813353337175</v>
@@ -3115,9 +3136,9 @@
         <v>0.97096055336501219</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.01369336330296936</v>
+        <v>1.369336330296936E-2</v>
       </c>
       <c r="B200">
         <v>0.96506335594044779</v>
@@ -3129,9 +3150,9 @@
         <v>0.99315331834851528</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.0068459158054533778</v>
+        <v>6.8459158054533778E-3</v>
       </c>
       <c r="B201">
         <v>0.76441653696513556</v>
@@ -3143,9 +3164,9 @@
         <v>0.99657704209727327</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.020153864594797809</v>
+        <v>2.0153864594797809E-2</v>
       </c>
       <c r="B202">
         <v>0.86150695153164281</v>
@@ -3157,9 +3178,9 @@
         <v>0.98992306770260108</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>0.074179543212980328</v>
+        <v>7.4179543212980328E-2</v>
       </c>
       <c r="B203">
         <v>0.85061155151992773</v>
@@ -3171,9 +3192,9 @@
         <v>0.96291022839350981</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0.069106732103444743</v>
+        <v>6.9106732103444743E-2</v>
       </c>
       <c r="B204">
         <v>0.86133741177134193</v>
@@ -3185,9 +3206,9 @@
         <v>0.96544663394827757</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>0.071271566905143802</v>
+        <v>7.1271566905143802E-2</v>
       </c>
       <c r="B205">
         <v>0.85745257597232027</v>
@@ -3199,9 +3220,9 @@
         <v>0.9643642165474281</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>0.034305058866074656</v>
+        <v>3.4305058866074656E-2</v>
       </c>
       <c r="B206">
         <v>0.7899849146721114</v>
@@ -3213,9 +3234,9 @@
         <v>0.98284747056696264</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.0072919102174421324</v>
+        <v>7.2919102174421324E-3</v>
       </c>
       <c r="B207">
         <v>0.74621657606645431</v>
@@ -3227,9 +3248,9 @@
         <v>0.99635404489127899</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.06954169461211715</v>
+        <v>6.954169461211715E-2</v>
       </c>
       <c r="B208">
         <v>0.84393519797568628</v>
@@ -3241,9 +3262,9 @@
         <v>0.96522915269394138</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0.0001899614032966938</v>
+        <v>1.899614032966938E-4</v>
       </c>
       <c r="B209">
         <v>0.6922126822776562</v>
@@ -3255,9 +3276,9 @@
         <v>0.99990501929835163</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>0.0021612144644456159</v>
+        <v>2.1612144644456159E-3</v>
       </c>
       <c r="B210">
         <v>0.72025343361455796</v>
@@ -3269,9 +3290,9 @@
         <v>0.99891939276777719</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>0.0002482811306340718</v>
+        <v>2.482811306340718E-4</v>
       </c>
       <c r="B211">
         <v>0.73724953810078075</v>
@@ -3283,9 +3304,9 @@
         <v>0.99987585943468282</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>0.042197836689362112</v>
+        <v>4.2197836689362112E-2</v>
       </c>
       <c r="B212">
         <v>0.8045038912168968</v>
@@ -3297,9 +3318,9 @@
         <v>0.97890108165531886</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.00017388932455930989</v>
+        <v>1.7388932455930989E-4</v>
       </c>
       <c r="B213">
         <v>0.70680958126339943</v>
@@ -3311,9 +3332,9 @@
         <v>0.99991305533772046</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.0069468829739916197</v>
+        <v>6.9468829739916197E-3</v>
       </c>
       <c r="B214">
         <v>0.81573401433080872</v>
@@ -3325,9 +3346,9 @@
         <v>0.9965265585130042</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.047113557858376509</v>
+        <v>4.7113557858376509E-2</v>
       </c>
       <c r="B215">
         <v>0.8421345723165472</v>
@@ -3339,9 +3360,9 @@
         <v>0.97644322107081172</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.071706219312602293</v>
+        <v>7.1706219312602293E-2</v>
       </c>
       <c r="B216">
         <v>0.82303225213376108</v>
@@ -3353,9 +3374,9 @@
         <v>0.96414689034369894</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>1.6664259606945663e-05</v>
+        <v>1.6664259606945663E-5</v>
       </c>
       <c r="B217">
         <v>0.79999166752306017</v>
@@ -3367,9 +3388,9 @@
         <v>0.99999166787019655</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.0034276047438285429</v>
+        <v>3.4276047438285429E-3</v>
       </c>
       <c r="B218">
         <v>0.6958057145693014</v>
@@ -3381,9 +3402,9 @@
         <v>0.99828619762808557</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.039642860909829235</v>
+        <v>3.9642860909829235E-2</v>
       </c>
       <c r="B219">
         <v>0.78241676904396684</v>
@@ -3395,9 +3416,9 @@
         <v>0.98017856954508542</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0.068053883735750192</v>
+        <v>6.8053883735750192E-2</v>
       </c>
       <c r="B220">
         <v>0.86264967492124089</v>
@@ -3409,9 +3430,9 @@
         <v>0.96597305813212486</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.043101796583690732</v>
+        <v>4.3101796583690732E-2</v>
       </c>
       <c r="B221">
         <v>0.84974377832660797</v>
@@ -3423,9 +3444,9 @@
         <v>0.97844910170815458</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>0.049207502000578315</v>
+        <v>4.9207502000578315E-2</v>
       </c>
       <c r="B222">
         <v>0.85866508381231454</v>
@@ -3437,9 +3458,9 @@
         <v>0.97579342263645963</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>0.001345565749235474</v>
+        <v>1.345565749235474E-3</v>
       </c>
       <c r="B223">
         <v>0.36004795122207822</v>
@@ -3451,9 +3472,9 @@
         <v>0.99932721712538231</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>0.090037186241090805</v>
+        <v>9.0037186241090805E-2</v>
       </c>
       <c r="B224">
         <v>0.79429338083301715</v>
@@ -3465,9 +3486,9 @@
         <v>0.95498140687945465</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>0.088814660171653903</v>
+        <v>8.8814660171653903E-2</v>
       </c>
       <c r="B225">
         <v>0.76686401959334316</v>
@@ -3479,9 +3500,9 @@
         <v>0.95559266991417313</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.044744879626302553</v>
+        <v>4.4744879626302553E-2</v>
       </c>
       <c r="B226">
         <v>0.69203192602366448</v>
@@ -3493,9 +3514,9 @@
         <v>0.97826423823212361</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.039335412667946254</v>
+        <v>3.9335412667946254E-2</v>
       </c>
       <c r="B227">
         <v>0.6741134191678515</v>
@@ -3507,9 +3528,9 @@
         <v>0.98033229366602692</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0.0023218701834203104</v>
+        <v>2.3218701834203104E-3</v>
       </c>
       <c r="B228">
         <v>0.50280676721477546</v>
@@ -3521,9 +3542,9 @@
         <v>0.99883906490828978</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>0.016556243121305547</v>
+        <v>1.6556243121305547E-2</v>
       </c>
       <c r="B229">
         <v>0.60473796694277338</v>
@@ -3535,9 +3556,9 @@
         <v>0.99172187843934723</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>0.063710674186478883</v>
+        <v>6.3710674186478883E-2</v>
       </c>
       <c r="B230">
         <v>0.8551688414777775</v>
@@ -3549,9 +3570,9 @@
         <v>0.9681446629067606</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>0.052491160398585666</v>
+        <v>5.2491160398585666E-2</v>
       </c>
       <c r="B231">
         <v>0.89498795048783319</v>
@@ -3563,9 +3584,9 @@
         <v>0.97375441980070709</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>0.06229063492523193</v>
+        <v>6.229063492523193E-2</v>
       </c>
       <c r="B232">
         <v>0.84461987369430935</v>
@@ -3577,9 +3598,9 @@
         <v>0.96885468253738416</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>0.038932435944788721</v>
+        <v>3.8932435944788721E-2</v>
       </c>
       <c r="B233">
         <v>0.82317266199596284</v>
@@ -3591,9 +3612,9 @@
         <v>0.98053378202760566</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>0.069601108700891784</v>
+        <v>6.9601108700891784E-2</v>
       </c>
       <c r="B234">
         <v>0.81833725007768221</v>
@@ -3605,7 +3626,7 @@
         <v>0.96519944564955407</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.11736284622119716</v>
       </c>
@@ -3619,9 +3640,9 @@
         <v>0.94131857688940146</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>0.064218324940672561</v>
+        <v>6.4218324940672561E-2</v>
       </c>
       <c r="B236">
         <v>0.83883944110505682</v>
@@ -3633,9 +3654,9 @@
         <v>0.96789083752966376</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>0.052947934617995719</v>
+        <v>5.2947934617995719E-2</v>
       </c>
       <c r="B237">
         <v>0.89312319323795286</v>
@@ -3647,9 +3668,9 @@
         <v>0.9737727818685048</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>0.081496023356488478</v>
+        <v>8.1496023356488478E-2</v>
       </c>
       <c r="B238">
         <v>0.81420264981616364</v>
@@ -3661,9 +3682,9 @@
         <v>0.95925198832175584</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.038707910152134518</v>
+        <v>3.8707910152134518E-2</v>
       </c>
       <c r="B239">
         <v>0.85847772461016225</v>
@@ -3675,9 +3696,9 @@
         <v>0.9806460449239327</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>0.057407285059901336</v>
+        <v>5.7407285059901336E-2</v>
       </c>
       <c r="B240">
         <v>0.88478341999414345</v>
@@ -3689,9 +3710,9 @@
         <v>0.97129635747004939</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.0093153490804497516</v>
+        <v>9.3153490804497516E-3</v>
       </c>
       <c r="B241">
         <v>0.63477555140490205</v>
@@ -3703,9 +3724,9 @@
         <v>0.99534232545977497</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>0.003551842588965559</v>
+        <v>3.551842588965559E-3</v>
       </c>
       <c r="B242">
         <v>0.5689955725523077</v>
@@ -3717,9 +3738,9 @@
         <v>0.99822407870551721</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.030368004866180048</v>
+        <v>3.0368004866180048E-2</v>
       </c>
       <c r="B243">
         <v>0.75019457867271178</v>
@@ -3731,9 +3752,9 @@
         <v>0.98481599756691007</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0.0022410965133085404</v>
+        <v>2.2410965133085404E-3</v>
       </c>
       <c r="B244">
         <v>0.57818814548030806</v>
@@ -3745,9 +3766,9 @@
         <v>0.9988794517433458</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.0056750173973556025</v>
+        <v>5.6750173973556025E-3</v>
       </c>
       <c r="B245">
         <v>0.59551754819351765</v>
@@ -3759,9 +3780,9 @@
         <v>0.99716249130132217</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.0095265979009954496</v>
+        <v>9.5265979009954496E-3</v>
       </c>
       <c r="B246">
         <v>0.6278805854300602</v>
@@ -3773,9 +3794,9 @@
         <v>0.99523670104950224</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>0.0024188204108681246</v>
+        <v>2.4188204108681246E-3</v>
       </c>
       <c r="B247">
         <v>0.48026553926950027</v>
@@ -3787,9 +3808,9 @@
         <v>0.99879058979456603</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.0055759030058095474</v>
+        <v>5.5759030058095474E-3</v>
       </c>
       <c r="B248">
         <v>0.70269455958137395</v>
@@ -3801,9 +3822,9 @@
         <v>0.99795797549886334</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.0026861218154570756</v>
+        <v>2.6861218154570756E-3</v>
       </c>
       <c r="B249">
         <v>0.50812265423924141</v>
@@ -3815,9 +3836,9 @@
         <v>0.99865693909227149</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>0.004830917874396135</v>
+        <v>4.830917874396135E-3</v>
       </c>
       <c r="B250">
         <v>0.64937900585995145</v>
@@ -3829,9 +3850,9 @@
         <v>0.99758454106280181</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.0088617436221800558</v>
+        <v>8.8617436221800558E-3</v>
       </c>
       <c r="B251">
         <v>0.59294576567185264</v>
@@ -3843,9 +3864,9 @@
         <v>0.99556912818891008</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.0038833690499383072</v>
+        <v>3.8833690499383072E-3</v>
       </c>
       <c r="B252">
         <v>0.54978404946337256</v>
@@ -3857,9 +3878,9 @@
         <v>0.99805831547503077</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.0055568544930247061</v>
+        <v>5.5568544930247061E-3</v>
       </c>
       <c r="B253">
         <v>0.61054211914744594</v>
@@ -3871,9 +3892,9 @@
         <v>0.99722157275348766</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.017528735632183906</v>
+        <v>1.7528735632183906E-2</v>
       </c>
       <c r="B254">
         <v>0.67487600666666481</v>
@@ -3885,9 +3906,9 @@
         <v>0.99123563218390809</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.0089070072140049576</v>
+        <v>8.9070072140049576E-3</v>
       </c>
       <c r="B255">
         <v>0.61571957075862671</v>
@@ -3899,9 +3920,9 @@
         <v>0.99554649639299742</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>0.00270887007729113</v>
+        <v>2.70887007729113E-3</v>
       </c>
       <c r="B256">
         <v>0.52925563124838659</v>
@@ -3913,9 +3934,9 @@
         <v>0.99864556496135459</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.0043771255825670735</v>
+        <v>4.3771255825670735E-3</v>
       </c>
       <c r="B257">
         <v>0.61843952905354471</v>
@@ -3927,9 +3948,9 @@
         <v>0.99781143720871646</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.00039753528125621148</v>
+        <v>3.9753528125621148E-4</v>
       </c>
       <c r="B258">
         <v>0.65348077189250198</v>
@@ -3941,9 +3962,9 @@
         <v>0.99980123235937179</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>0.0021739130434782609</v>
+        <v>2.1739130434782609E-3</v>
       </c>
       <c r="B259">
         <v>0.55097379008282898</v>
@@ -3955,9 +3976,9 @@
         <v>0.99891304347826082</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.0011385800897412493</v>
+        <v>1.1385800897412493E-3</v>
       </c>
       <c r="B260">
         <v>0.61962296258223615</v>
@@ -3969,9 +3990,9 @@
         <v>0.99943070995512928</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.0089837512914436</v>
+        <v>8.9837512914436E-3</v>
       </c>
       <c r="B261">
         <v>0.85077647858395722</v>
@@ -3983,9 +4004,9 @@
         <v>0.99550812435427827</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.010974293563579278</v>
+        <v>1.0974293563579278E-2</v>
       </c>
       <c r="B262">
         <v>0.71599767775508549</v>
@@ -3997,9 +4018,9 @@
         <v>0.99451285321821037</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.027438469380324765</v>
+        <v>2.7438469380324765E-2</v>
       </c>
       <c r="B263">
         <v>0.68974100811829875</v>
@@ -4011,9 +4032,9 @@
         <v>0.98628076530983766</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.025423728813559324</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="B264">
         <v>0.7306531334521591</v>
@@ -4025,9 +4046,9 @@
         <v>0.98728813559322037</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.0369039928767219</v>
+        <v>3.69039928767219E-2</v>
       </c>
       <c r="B265">
         <v>0.7397713030966333</v>
@@ -4039,9 +4060,9 @@
         <v>0.98154800356163907</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.03695849118761324</v>
+        <v>3.695849118761324E-2</v>
       </c>
       <c r="B266">
         <v>0.89139039703220047</v>
@@ -4053,9 +4074,9 @@
         <v>0.98152075440619335</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.036205281171724127</v>
+        <v>3.6205281171724127E-2</v>
       </c>
       <c r="B267">
         <v>0.73700023224617239</v>
@@ -4067,9 +4088,9 @@
         <v>0.98189735941413792</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.016344559067436745</v>
+        <v>1.6344559067436745E-2</v>
       </c>
       <c r="B268">
         <v>0.95799598435520428</v>
@@ -4081,9 +4102,9 @@
         <v>0.99182772046628154</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.0059296338672768876</v>
+        <v>5.9296338672768876E-3</v>
       </c>
       <c r="B269">
         <v>0.92870232138302566</v>
@@ -4095,9 +4116,9 @@
         <v>0.99703518306636152</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0.0028610554115518169</v>
+        <v>2.8610554115518169E-3</v>
       </c>
       <c r="B270">
         <v>0.89226703414762121</v>
@@ -4109,9 +4130,9 @@
         <v>0.99856947229422399</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0.0011568402005503826</v>
+        <v>1.1568402005503826E-3</v>
       </c>
       <c r="B271">
         <v>0.87567477706849861</v>
@@ -4123,9 +4144,9 @@
         <v>0.9994215798997248</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.0014928978645279737</v>
+        <v>1.4928978645279737E-3</v>
       </c>
       <c r="B272">
         <v>0.8878880075790031</v>
@@ -4137,9 +4158,9 @@
         <v>0.99925355106773595</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.037655927581165302</v>
+        <v>3.7655927581165302E-2</v>
       </c>
       <c r="B273">
         <v>0.8870114639374721</v>
@@ -4151,9 +4172,9 @@
         <v>0.9811720362094174</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.044751924021614542</v>
+        <v>4.4751924021614542E-2</v>
       </c>
       <c r="B274">
         <v>0.88541708043254719</v>
@@ -4165,9 +4186,9 @@
         <v>0.97762403798919273</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.010200832876991455</v>
+        <v>1.0200832876991455E-2</v>
       </c>
       <c r="B275">
         <v>0.97221266037102327</v>
@@ -4179,9 +4200,9 @@
         <v>0.99489958356150421</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.01469116174998528</v>
+        <v>1.469116174998528E-2</v>
       </c>
       <c r="B276">
         <v>0.96969591056600368</v>
@@ -4193,9 +4214,9 @@
         <v>0.99265441912500729</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>0.036892138939670929</v>
+        <v>3.6892138939670929E-2</v>
       </c>
       <c r="B277">
         <v>0.90799467312961124</v>
@@ -4207,9 +4228,9 @@
         <v>0.9815539305301646</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.0054524445728316604</v>
+        <v>5.4524445728316604E-3</v>
       </c>
       <c r="B278">
         <v>0.75381127928596847</v>
@@ -4221,9 +4242,9 @@
         <v>0.99940645988300725</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.00028896166441918705</v>
+        <v>2.8896166441918705E-4</v>
       </c>
       <c r="B279">
         <v>0.4998554774063011</v>
@@ -4235,9 +4256,9 @@
         <v>0.99985551916779036</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.0032069157836028999</v>
+        <v>3.2069157836028999E-3</v>
       </c>
       <c r="B280">
         <v>0.70839597847784008</v>
@@ -4249,9 +4270,9 @@
         <v>0.9983965421081985</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.0089837512914436</v>
+        <v>8.9837512914436E-3</v>
       </c>
       <c r="B281">
         <v>0.85077647858395722</v>
@@ -4263,9 +4284,9 @@
         <v>0.99550812435427827</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>0.010974293563579278</v>
+        <v>1.0974293563579278E-2</v>
       </c>
       <c r="B282">
         <v>0.71599767775508549</v>
@@ -4277,9 +4298,9 @@
         <v>0.99451285321821037</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>0.027438469380324765</v>
+        <v>2.7438469380324765E-2</v>
       </c>
       <c r="B283">
         <v>0.68974100811829875</v>
@@ -4291,9 +4312,9 @@
         <v>0.98628076530983766</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>0.025423728813559324</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="B284">
         <v>0.7306531334521591</v>
@@ -4305,9 +4326,9 @@
         <v>0.98728813559322037</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>0.0369039928767219</v>
+        <v>3.69039928767219E-2</v>
       </c>
       <c r="B285">
         <v>0.7397713030966333</v>
@@ -4319,9 +4340,9 @@
         <v>0.98154800356163907</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>0.03695849118761324</v>
+        <v>3.695849118761324E-2</v>
       </c>
       <c r="B286">
         <v>0.89139039703220047</v>
@@ -4333,9 +4354,9 @@
         <v>0.98152075440619335</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>0.036205281171724127</v>
+        <v>3.6205281171724127E-2</v>
       </c>
       <c r="B287">
         <v>0.73700023224617239</v>
@@ -4347,9 +4368,9 @@
         <v>0.98189735941413792</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>0.016344559067436745</v>
+        <v>1.6344559067436745E-2</v>
       </c>
       <c r="B288">
         <v>0.95799598435520428</v>
@@ -4361,9 +4382,9 @@
         <v>0.99182772046628154</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>0.0059296338672768876</v>
+        <v>5.9296338672768876E-3</v>
       </c>
       <c r="B289">
         <v>0.92870232138302566</v>
@@ -4375,9 +4396,9 @@
         <v>0.99703518306636152</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.0028610554115518169</v>
+        <v>2.8610554115518169E-3</v>
       </c>
       <c r="B290">
         <v>0.89226703414762121</v>
@@ -4389,9 +4410,9 @@
         <v>0.99856947229422399</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>0.0011568402005503826</v>
+        <v>1.1568402005503826E-3</v>
       </c>
       <c r="B291">
         <v>0.87567477706849861</v>
@@ -4403,9 +4424,9 @@
         <v>0.9994215798997248</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>0.0014928978645279737</v>
+        <v>1.4928978645279737E-3</v>
       </c>
       <c r="B292">
         <v>0.8878880075790031</v>
@@ -4417,9 +4438,9 @@
         <v>0.99925355106773595</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.037655927581165302</v>
+        <v>3.7655927581165302E-2</v>
       </c>
       <c r="B293">
         <v>0.8870114639374721</v>
@@ -4431,9 +4452,9 @@
         <v>0.9811720362094174</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>0.044751924021614542</v>
+        <v>4.4751924021614542E-2</v>
       </c>
       <c r="B294">
         <v>0.88541708043254719</v>
@@ -4445,9 +4466,9 @@
         <v>0.97762403798919273</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>0.010200832876991455</v>
+        <v>1.0200832876991455E-2</v>
       </c>
       <c r="B295">
         <v>0.97221266037102327</v>
@@ -4459,9 +4480,9 @@
         <v>0.99489958356150421</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0.01469116174998528</v>
+        <v>1.469116174998528E-2</v>
       </c>
       <c r="B296">
         <v>0.96969591056600368</v>
@@ -4473,9 +4494,9 @@
         <v>0.99265441912500729</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>0.036892138939670929</v>
+        <v>3.6892138939670929E-2</v>
       </c>
       <c r="B297">
         <v>0.90799467312961124</v>
@@ -4487,9 +4508,9 @@
         <v>0.9815539305301646</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0.0054524445728316604</v>
+        <v>5.4524445728316604E-3</v>
       </c>
       <c r="B298">
         <v>0.75381127928596847</v>
@@ -4501,9 +4522,9 @@
         <v>0.99940645988300725</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.00028896166441918705</v>
+        <v>2.8896166441918705E-4</v>
       </c>
       <c r="B299">
         <v>0.4998554774063011</v>
@@ -4515,9 +4536,9 @@
         <v>0.99985551916779036</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>0.0032069157836028999</v>
+        <v>3.2069157836028999E-3</v>
       </c>
       <c r="B300">
         <v>0.70839597847784008</v>
@@ -4529,9 +4550,9 @@
         <v>0.9983965421081985</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>2.4706303813417993e-05</v>
+        <v>2.4706303813417993E-5</v>
       </c>
       <c r="B301">
         <v>0.5555432020602884</v>
@@ -4543,9 +4564,9 @@
         <v>0.99998764684809338</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.0026053847737010495</v>
+        <v>2.6053847737010495E-3</v>
       </c>
       <c r="B302">
         <v>0.7911762117880442</v>
@@ -4557,9 +4578,9 @@
         <v>0.9990288276236271</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>0.0037687664448227826</v>
+        <v>3.7687664448227826E-3</v>
       </c>
       <c r="B303">
         <v>0.7552084987111094</v>
@@ -4571,9 +4592,9 @@
         <v>0.99811561677758853</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0.00017428448297715922</v>
+        <v>1.7428448297715922E-4</v>
       </c>
       <c r="B304">
         <v>0.83039621940552155</v>
@@ -4585,9 +4606,9 @@
         <v>0.99991285775851146</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0.015683694356344334</v>
+        <v>1.5683694356344334E-2</v>
       </c>
       <c r="B305">
         <v>0.92648817913397574</v>
@@ -4599,9 +4620,9 @@
         <v>0.99215815282182773</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>0.00013004195266472923</v>
+        <v>1.3004195266472923E-4</v>
       </c>
       <c r="B306">
         <v>0.82829316333845004</v>
@@ -4613,9 +4634,9 @@
         <v>0.99993497902366768</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>0.00094919251030320081</v>
+        <v>9.4919251030320081E-4</v>
       </c>
       <c r="B307">
         <v>0.95756298842810728</v>
@@ -4627,10 +4648,13 @@
         <v>0.99952540374484833</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0</v>
       </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
       <c r="C308">
         <v>1</v>
       </c>
@@ -4638,12 +4662,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0.00011438157694067408</v>
+        <v>1.1438157694067408E-4</v>
       </c>
       <c r="B309">
-        <v>-5.7194059443692456e-05</v>
+        <v>-5.7194059443692456E-5</v>
       </c>
       <c r="C309">
         <v>0.99977125647083642</v>
@@ -4652,9 +4676,9 @@
         <v>0.99994280921152967</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0.0004606060606060606</v>
+        <v>4.606060606060606E-4</v>
       </c>
       <c r="B310">
         <v>0.75721628660094631</v>
@@ -4666,9 +4690,9 @@
         <v>0.99976969696969697</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0.004700609350330771</v>
+        <v>4.700609350330771E-3</v>
       </c>
       <c r="B311">
         <v>0.89942699264821058</v>
@@ -4680,9 +4704,9 @@
         <v>0.99764969532483461</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.0025838085964668247</v>
+        <v>2.5838085964668247E-3</v>
       </c>
       <c r="B312">
         <v>0.85054135324671742</v>
@@ -4694,9 +4718,9 @@
         <v>0.99870809570176655</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>0.00014065330647792867</v>
+        <v>1.4065330647792867E-4</v>
       </c>
       <c r="B313">
         <v>0.77109165156788462</v>
@@ -4708,9 +4732,9 @@
         <v>0.99992967334676119</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0.00010754856489883713</v>
+        <v>1.0754856489883713E-4</v>
       </c>
       <c r="B314">
         <v>0.58968980841176222</v>
@@ -4722,9 +4746,9 @@
         <v>0.99994622571755054</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>0.00012260765550239233</v>
+        <v>1.2260765550239233E-4</v>
       </c>
       <c r="B315">
         <v>0.7735256745175344</v>
@@ -4736,9 +4760,9 @@
         <v>0.99993869617224873</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>0.00050505050505050505</v>
+        <v>5.0505050505050505E-4</v>
       </c>
       <c r="B316">
         <v>0.747560700585294</v>
@@ -4750,9 +4774,9 @@
         <v>0.99974747474747483</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>0.0013768255806472366</v>
+        <v>1.3768255806472366E-3</v>
       </c>
       <c r="B317">
         <v>0.73247688884658679</v>
@@ -4764,9 +4788,9 @@
         <v>0.9993115872096765</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0.00029783516383770538</v>
+        <v>2.9783516383770538E-4</v>
       </c>
       <c r="B318">
         <v>0.80975299046428462</v>
@@ -4778,9 +4802,9 @@
         <v>0.99985108241808118</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>0.00015335165374423399</v>
+        <v>1.5335165374423399E-4</v>
       </c>
       <c r="B319">
         <v>0.48971923101554521</v>
@@ -4792,9 +4816,9 @@
         <v>0.99992332417312801</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0.002104381252772165</v>
+        <v>2.104381252772165E-3</v>
       </c>
       <c r="B320">
         <v>0.76398166984796512</v>
@@ -4806,9 +4830,9 @@
         <v>0.99952996402345873</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.036348836348836351</v>
+        <v>3.6348836348836351E-2</v>
       </c>
       <c r="B321">
         <v>0.92713333284627619</v>
@@ -4820,9 +4844,9 @@
         <v>0.98182558182558188</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>0.036936517783291975</v>
+        <v>3.6936517783291975E-2</v>
       </c>
       <c r="B322">
         <v>0.89620352491755551</v>
@@ -4834,9 +4858,9 @@
         <v>0.98153174110835406</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.023264889184753293</v>
+        <v>2.3264889184753293E-2</v>
       </c>
       <c r="B323">
         <v>0.89380248323658817</v>
@@ -4848,9 +4872,9 @@
         <v>0.98836755540762333</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>0.013191273465246067</v>
+        <v>1.3191273465246067E-2</v>
       </c>
       <c r="B324">
         <v>0.91873991989636827</v>
@@ -4862,9 +4886,9 @@
         <v>0.99340436326737702</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>0.036101670297748731</v>
+        <v>3.6101670297748731E-2</v>
       </c>
       <c r="B325">
         <v>0.9225801154409039</v>
@@ -4876,9 +4900,9 @@
         <v>0.9819491648511256</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>0.005710704088028414</v>
+        <v>5.710704088028414E-3</v>
       </c>
       <c r="B326">
         <v>0.83403595308382861</v>
@@ -4890,9 +4914,9 @@
         <v>0.99714464795598579</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.018694196428571428</v>
+        <v>1.8694196428571428E-2</v>
       </c>
       <c r="B327">
         <v>0.89471598522018103</v>
@@ -4904,9 +4928,9 @@
         <v>0.9906529017857143</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.021256954461158047</v>
+        <v>2.1256954461158047E-2</v>
       </c>
       <c r="B328">
         <v>0.8435086296683848</v>
@@ -4918,9 +4942,9 @@
         <v>0.99073459715639811</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>0.018191428445579881</v>
+        <v>1.8191428445579881E-2</v>
       </c>
       <c r="B329">
         <v>0.84151793223546478</v>
@@ -4932,9 +4956,9 @@
         <v>0.99714795401488776</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>0.029990998167252758</v>
+        <v>2.9990998167252758E-2</v>
       </c>
       <c r="B330">
         <v>0.93039254430251228</v>
@@ -4946,9 +4970,9 @@
         <v>0.98500450091637348</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.032635486951967212</v>
+        <v>3.2635486951967212E-2</v>
       </c>
       <c r="B331">
         <v>0.9321212047070917</v>
@@ -4960,9 +4984,9 @@
         <v>0.98422817111871086</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.04145307259034238</v>
+        <v>4.145307259034238E-2</v>
       </c>
       <c r="B332">
         <v>0.91708943150350319</v>
@@ -4974,9 +4998,9 @@
         <v>0.97927346370482882</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.022205497780210425</v>
+        <v>2.2205497780210425E-2</v>
       </c>
       <c r="B333">
         <v>0.93756114232979426</v>
@@ -4988,9 +5012,9 @@
         <v>0.98997483731679126</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>0.042385265700483093</v>
+        <v>4.2385265700483093E-2</v>
       </c>
       <c r="B334">
         <v>0.91516429657216181</v>
@@ -5002,9 +5026,9 @@
         <v>0.97880736714975847</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0.011890207359463022</v>
+        <v>1.1890207359463022E-2</v>
       </c>
       <c r="B335">
         <v>0.93711787348452669</v>
@@ -5016,9 +5040,9 @@
         <v>0.99405489632026844</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>0.025738775999520468</v>
+        <v>2.5738775999520468E-2</v>
       </c>
       <c r="B336">
         <v>0.91070170523715843</v>
@@ -5030,9 +5054,9 @@
         <v>0.98925478031529102</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.030605832076420314</v>
+        <v>3.0605832076420314E-2</v>
       </c>
       <c r="B337">
         <v>0.9103955781986961</v>
@@ -5044,9 +5068,9 @@
         <v>0.9846970839617899</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>0.035029785029785029</v>
+        <v>3.5029785029785029E-2</v>
       </c>
       <c r="B338">
         <v>0.91025488717281222</v>
@@ -5058,9 +5082,9 @@
         <v>0.98401482776482785</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0.0291854798817004</v>
+        <v>2.91854798817004E-2</v>
       </c>
       <c r="B339">
         <v>0.90335605161415811</v>
@@ -5072,9 +5096,9 @@
         <v>0.98540726005914969</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0.037761069340016704</v>
+        <v>3.7761069340016704E-2</v>
       </c>
       <c r="B340">
         <v>0.90193139343508089</v>
@@ -5086,9 +5110,9 @@
         <v>0.98111946532999161</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0.060472019464720195</v>
+        <v>6.0472019464720195E-2</v>
       </c>
       <c r="B341">
         <v>0.86872784461701691</v>
@@ -5100,9 +5124,9 @@
         <v>0.96976399026763982</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>0.060483297074192297</v>
+        <v>6.0483297074192297E-2</v>
       </c>
       <c r="B342">
         <v>0.85762450955175784</v>
@@ -5114,9 +5138,9 @@
         <v>0.9697583514629039</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>0.052535231433188112</v>
+        <v>5.2535231433188112E-2</v>
       </c>
       <c r="B343">
         <v>0.86526541744882401</v>
@@ -5128,9 +5152,9 @@
         <v>0.97373238428340603</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>0.053745910812672174</v>
+        <v>5.3745910812672174E-2</v>
       </c>
       <c r="B344">
         <v>0.87690643928724954</v>
@@ -5142,9 +5166,9 @@
         <v>0.97312704459366384</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0.028379049890677799</v>
+        <v>2.8379049890677799E-2</v>
       </c>
       <c r="B345">
         <v>0.83718116702835199</v>
@@ -5156,9 +5180,9 @@
         <v>0.98581047505466113</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.0021520803443328554</v>
+        <v>2.1520803443328554E-3</v>
       </c>
       <c r="B346">
         <v>0.63925728805294113</v>
@@ -5170,9 +5194,9 @@
         <v>0.99892395982783355</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0.014206886667383281</v>
+        <v>1.4206886667383281E-2</v>
       </c>
       <c r="B347">
         <v>0.83180101866383882</v>
@@ -5184,9 +5208,9 @@
         <v>0.99289655666630838</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>0.018164177845271239</v>
+        <v>1.8164177845271239E-2</v>
       </c>
       <c r="B348">
         <v>0.83930685274709271</v>
@@ -5198,9 +5222,9 @@
         <v>0.99091791107736438</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.011943467354288997</v>
+        <v>1.1943467354288997E-2</v>
       </c>
       <c r="B349">
         <v>0.77905961810079649</v>
@@ -5212,9 +5236,9 @@
         <v>0.99435934806676285</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.0013168280464836393</v>
+        <v>1.3168280464836393E-3</v>
       </c>
       <c r="B350">
         <v>0.58018632124681613</v>
@@ -5226,9 +5250,9 @@
         <v>0.99934158597675815</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0.00051285687275477406</v>
+        <v>5.1285687275477406E-4</v>
       </c>
       <c r="B351">
         <v>0.5595823038536597</v>
@@ -5240,9 +5264,9 @@
         <v>0.99974357156362259</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>0.00094323846949760138</v>
+        <v>9.4323846949760138E-4</v>
       </c>
       <c r="B352">
         <v>0.67106093673280787</v>
@@ -5254,9 +5278,9 @@
         <v>0.99952838076525119</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>0.0014650431677225109</v>
+        <v>1.4650431677225109E-3</v>
       </c>
       <c r="B353">
         <v>0.63572330663484566</v>
@@ -5268,9 +5292,9 @@
         <v>0.99926747841613883</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>0.00069307035457690967</v>
+        <v>6.9307035457690967E-4</v>
       </c>
       <c r="B354">
         <v>0.59300444486972259</v>
@@ -5282,9 +5306,9 @@
         <v>0.99965346482271145</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>0.0001957990231804288</v>
+        <v>1.957990231804288E-4</v>
       </c>
       <c r="B355">
         <v>0.62126481368267494</v>
@@ -5296,9 +5320,9 @@
         <v>0.99990210048840977</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>0.0023707545810575398</v>
+        <v>2.3707545810575398E-3</v>
       </c>
       <c r="B356">
         <v>0.6400396327916662</v>
@@ -5310,9 +5334,9 @@
         <v>0.9988146227094713</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>0.010403770118614961</v>
+        <v>1.0403770118614961E-2</v>
       </c>
       <c r="B357">
         <v>0.73484152118167301</v>
@@ -5324,9 +5348,9 @@
         <v>0.99479811494069259</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>0.010928689677491629</v>
+        <v>1.0928689677491629E-2</v>
       </c>
       <c r="B358">
         <v>0.73319057175485869</v>
@@ -5338,9 +5362,9 @@
         <v>0.9945356551612542</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>0.0016246003483143146</v>
+        <v>1.6246003483143146E-3</v>
       </c>
       <c r="B359">
         <v>0.55981888419550641</v>
@@ -5352,9 +5376,9 @@
         <v>0.99918769982584288</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0.0011502071609671635</v>
+        <v>1.1502071609671635E-3</v>
       </c>
       <c r="B360">
         <v>0.46494923248254744</v>
@@ -5366,9 +5390,9 @@
         <v>0.99942489641951637</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>0.021181262729124236</v>
+        <v>2.1181262729124236E-2</v>
       </c>
       <c r="B361">
         <v>0.92887543812810092</v>
@@ -5380,9 +5404,9 @@
         <v>0.98940936863543794</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.0024181991879627419</v>
+        <v>2.4181991879627419E-3</v>
       </c>
       <c r="B362">
         <v>0.95106877530379452</v>
@@ -5394,9 +5418,9 @@
         <v>0.9987909004060187</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>0.0038348185278009837</v>
+        <v>3.8348185278009837E-3</v>
       </c>
       <c r="B363">
         <v>0.94009954037641619</v>
@@ -5408,9 +5432,9 @@
         <v>0.99808259073609951</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.004683739050596789</v>
+        <v>4.683739050596789E-3</v>
       </c>
       <c r="B364">
         <v>0.9563278698649913</v>
@@ -5422,9 +5446,9 @@
         <v>0.99765813047470164</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0.0046858974358974358</v>
+        <v>4.6858974358974358E-3</v>
       </c>
       <c r="B365">
         <v>0.93519477130611839</v>
@@ -5436,9 +5460,9 @@
         <v>0.99765705128205118</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>0.0098205254863218319</v>
+        <v>9.8205254863218319E-3</v>
       </c>
       <c r="B366">
         <v>0.90464972848032599</v>
@@ -5450,9 +5474,9 @@
         <v>0.99508973725683925</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>0.0026258372234625534</v>
+        <v>2.6258372234625534E-3</v>
       </c>
       <c r="B367">
         <v>0.94724477578763122</v>
@@ -5464,9 +5488,9 @@
         <v>0.99868708138826867</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.0070382675033837825</v>
+        <v>7.0382675033837825E-3</v>
       </c>
       <c r="B368">
         <v>0.85780778709503092</v>
@@ -5478,9 +5502,9 @@
         <v>0.99648086624830812</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.0040693105826130182</v>
+        <v>4.0693105826130182E-3</v>
       </c>
       <c r="B369">
         <v>0.97071990754439996</v>
@@ -5492,9 +5516,9 @@
         <v>0.99796534470869358</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0.0050539480550085003</v>
+        <v>5.0539480550085003E-3</v>
       </c>
       <c r="B370">
         <v>0.96730356514234217</v>
@@ -5506,9 +5530,9 @@
         <v>0.99747302597249576</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.0083433436047422576</v>
+        <v>8.3433436047422576E-3</v>
       </c>
       <c r="B371">
         <v>0.9420924581324962</v>
@@ -5520,9 +5544,9 @@
         <v>0.9958283281976289</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>0.010562183474389043</v>
+        <v>1.0562183474389043E-2</v>
       </c>
       <c r="B372">
         <v>0.90036899077562726</v>
@@ -5534,9 +5558,9 @@
         <v>0.9947189082628054</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.019515332255788012</v>
+        <v>1.9515332255788012E-2</v>
       </c>
       <c r="B373">
         <v>0.88721529685675571</v>
@@ -5548,9 +5572,9 @@
         <v>0.99024233387210614</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.039353533257237727</v>
+        <v>3.9353533257237727E-2</v>
       </c>
       <c r="B374">
         <v>0.87979776850478253</v>
@@ -5562,9 +5586,9 @@
         <v>0.98032323337138116</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.01162407730597111</v>
+        <v>1.162407730597111E-2</v>
       </c>
       <c r="B375">
         <v>0.95015582896196782</v>
@@ -5576,9 +5600,9 @@
         <v>0.99418796134701437</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.026485105795450617</v>
+        <v>2.6485105795450617E-2</v>
       </c>
       <c r="B376">
         <v>0.90290084252837233</v>
@@ -5590,9 +5614,9 @@
         <v>0.9868797676987332</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>0.020205396431273739</v>
+        <v>2.0205396431273739E-2</v>
       </c>
       <c r="B377">
         <v>0.90402872665217282</v>
@@ -5604,9 +5628,9 @@
         <v>0.98989730178436319</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.021670046306104536</v>
+        <v>2.1670046306104536E-2</v>
       </c>
       <c r="B378">
         <v>0.92235889117374048</v>
@@ -5618,9 +5642,9 @@
         <v>0.98916497684694793</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.019910489717413816</v>
+        <v>1.9910489717413816E-2</v>
       </c>
       <c r="B379">
         <v>0.91877432475223864</v>
@@ -5632,9 +5656,9 @@
         <v>0.99004475514129309</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.0049519586104951954</v>
+        <v>4.9519586104951954E-3</v>
       </c>
       <c r="B380">
         <v>0.96347035109941348</v>
@@ -5646,9 +5670,9 @@
         <v>0.99752402069475243</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>0.021181262729124236</v>
+        <v>2.1181262729124236E-2</v>
       </c>
       <c r="B381">
         <v>0.92887543812810092</v>
@@ -5660,9 +5684,9 @@
         <v>0.98940936863543794</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>0.0024181991879627419</v>
+        <v>2.4181991879627419E-3</v>
       </c>
       <c r="B382">
         <v>0.95106877530379452</v>
@@ -5674,9 +5698,9 @@
         <v>0.9987909004060187</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.0038348185278009837</v>
+        <v>3.8348185278009837E-3</v>
       </c>
       <c r="B383">
         <v>0.94009954037641619</v>
@@ -5688,9 +5712,9 @@
         <v>0.99808259073609951</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.004683739050596789</v>
+        <v>4.683739050596789E-3</v>
       </c>
       <c r="B384">
         <v>0.9563278698649913</v>
@@ -5702,9 +5726,9 @@
         <v>0.99765813047470164</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.0046858974358974358</v>
+        <v>4.6858974358974358E-3</v>
       </c>
       <c r="B385">
         <v>0.93519477130611839</v>
@@ -5716,9 +5740,9 @@
         <v>0.99765705128205118</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.0098205254863218319</v>
+        <v>9.8205254863218319E-3</v>
       </c>
       <c r="B386">
         <v>0.90464972848032599</v>
@@ -5730,9 +5754,9 @@
         <v>0.99508973725683925</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.0026258372234625534</v>
+        <v>2.6258372234625534E-3</v>
       </c>
       <c r="B387">
         <v>0.94724477578763122</v>
@@ -5744,9 +5768,9 @@
         <v>0.99868708138826867</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.0070382675033837825</v>
+        <v>7.0382675033837825E-3</v>
       </c>
       <c r="B388">
         <v>0.85780778709503092</v>
@@ -5758,9 +5782,9 @@
         <v>0.99648086624830812</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.0040693105826130182</v>
+        <v>4.0693105826130182E-3</v>
       </c>
       <c r="B389">
         <v>0.97071990754439996</v>
@@ -5772,9 +5796,9 @@
         <v>0.99796534470869358</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.0050539480550085003</v>
+        <v>5.0539480550085003E-3</v>
       </c>
       <c r="B390">
         <v>0.96730356514234217</v>
@@ -5786,9 +5810,9 @@
         <v>0.99747302597249576</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.0083433436047422576</v>
+        <v>8.3433436047422576E-3</v>
       </c>
       <c r="B391">
         <v>0.9420924581324962</v>
@@ -5800,9 +5824,9 @@
         <v>0.9958283281976289</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.010562183474389043</v>
+        <v>1.0562183474389043E-2</v>
       </c>
       <c r="B392">
         <v>0.90036899077562726</v>
@@ -5814,9 +5838,9 @@
         <v>0.9947189082628054</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.019515332255788012</v>
+        <v>1.9515332255788012E-2</v>
       </c>
       <c r="B393">
         <v>0.88721529685675571</v>
@@ -5828,9 +5852,9 @@
         <v>0.99024233387210614</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.039353533257237727</v>
+        <v>3.9353533257237727E-2</v>
       </c>
       <c r="B394">
         <v>0.87979776850478253</v>
@@ -5842,9 +5866,9 @@
         <v>0.98032323337138116</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.01162407730597111</v>
+        <v>1.162407730597111E-2</v>
       </c>
       <c r="B395">
         <v>0.95015582896196782</v>
@@ -5856,9 +5880,9 @@
         <v>0.99418796134701437</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.026485105795450617</v>
+        <v>2.6485105795450617E-2</v>
       </c>
       <c r="B396">
         <v>0.90290084252837233</v>
@@ -5870,9 +5894,9 @@
         <v>0.9868797676987332</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.020205396431273739</v>
+        <v>2.0205396431273739E-2</v>
       </c>
       <c r="B397">
         <v>0.90402872665217282</v>
@@ -5884,9 +5908,9 @@
         <v>0.98989730178436319</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.021670046306104536</v>
+        <v>2.1670046306104536E-2</v>
       </c>
       <c r="B398">
         <v>0.92235889117374048</v>
@@ -5898,9 +5922,9 @@
         <v>0.98916497684694793</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>0.019910489717413816</v>
+        <v>1.9910489717413816E-2</v>
       </c>
       <c r="B399">
         <v>0.91877432475223864</v>
@@ -5912,9 +5936,9 @@
         <v>0.99004475514129309</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.0049519586104951954</v>
+        <v>4.9519586104951954E-3</v>
       </c>
       <c r="B400">
         <v>0.96347035109941348</v>
